--- a/data/rosstat_data_regions.xlsx
+++ b/data/rosstat_data_regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Юрий\Desktop\Университет Zerocoder\Программист на Python с нуля с помощью ChatGPT\Тестовые задания\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B25A14C-A3A1-491D-A6BC-5122310C7A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63123404-4644-4C0D-ADDC-6BDDAE6F392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1421,6 +1421,12 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1440,12 +1446,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1813,108 +1813,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A3" s="74"/>
-      <c r="B3" s="73">
+      <c r="A3" s="76"/>
+      <c r="B3" s="75">
         <v>2013</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="76">
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="69">
         <v>2014</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76" t="s">
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76" t="s">
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="77">
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="70">
         <v>2017</v>
       </c>
-      <c r="AY3" s="77"/>
-      <c r="AZ3" s="77"/>
-      <c r="BA3" s="77"/>
-      <c r="BB3" s="77"/>
-      <c r="BC3" s="77"/>
-      <c r="BD3" s="77"/>
-      <c r="BE3" s="77"/>
-      <c r="BF3" s="77"/>
-      <c r="BG3" s="77"/>
-      <c r="BH3" s="77"/>
-      <c r="BI3" s="77"/>
-      <c r="BJ3" s="77">
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="70"/>
+      <c r="BH3" s="70"/>
+      <c r="BI3" s="70"/>
+      <c r="BJ3" s="70">
         <v>2018</v>
       </c>
-      <c r="BK3" s="77"/>
-      <c r="BL3" s="77"/>
-      <c r="BM3" s="77"/>
-      <c r="BN3" s="77"/>
-      <c r="BO3" s="77"/>
-      <c r="BP3" s="77"/>
-      <c r="BQ3" s="77"/>
-      <c r="BR3" s="77"/>
-      <c r="BS3" s="77"/>
-      <c r="BT3" s="77"/>
-      <c r="BU3" s="77"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="70"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -23330,50 +23330,50 @@
       </c>
     </row>
     <row r="103" spans="1:73" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="70" t="s">
+      <c r="A103" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="70"/>
-      <c r="H103" s="70"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="72"/>
+      <c r="H103" s="72"/>
     </row>
     <row r="104" spans="1:73" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="71"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="71"/>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
-      <c r="H104" s="71"/>
+      <c r="A104" s="73"/>
+      <c r="B104" s="73"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="73"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="73"/>
+      <c r="H104" s="73"/>
     </row>
     <row r="105" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="72"/>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="F105" s="72"/>
-      <c r="G105" s="72"/>
-      <c r="H105" s="72"/>
+      <c r="A105" s="74"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N3:Y3"/>
-    <mergeCell ref="Z3:AK3"/>
-    <mergeCell ref="AL3:AW3"/>
-    <mergeCell ref="AX3:BI3"/>
-    <mergeCell ref="BJ3:BU3"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A103:H103"/>
     <mergeCell ref="A104:H104"/>
     <mergeCell ref="A105:H105"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="N3:Y3"/>
+    <mergeCell ref="Z3:AK3"/>
+    <mergeCell ref="AL3:AW3"/>
+    <mergeCell ref="AX3:BI3"/>
+    <mergeCell ref="BJ3:BU3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -23407,21 +23407,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
       <c r="CB1">
         <v>2025</v>
       </c>
